--- a/src/models/baselines/RF/results/real-world/IMDb/metrics.xlsx
+++ b/src/models/baselines/RF/results/real-world/IMDb/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="D2" t="n">
-        <v>0.816474629449313</v>
+        <v>0.8007478632478632</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6016949152542372</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6016949152542372</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8029420913123445</v>
+        <v>0.804986205777345</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8294628367413178</v>
+        <v>0.8307732878935411</v>
       </c>
     </row>
     <row r="5">
@@ -504,7 +504,7 @@
         <v>0.6779661016949152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8488775289408202</v>
+        <v>0.8551363193768257</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>0.6610169491525424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8378962458076383</v>
+        <v>0.8368170507411015</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.576271186440678</v>
+        <v>0.5677966101694916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.576271186440678</v>
+        <v>0.5677966101694916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7796197122146489</v>
+        <v>0.7745740019474195</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.6694915254237288</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8323974899924268</v>
+        <v>0.8235313209996754</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8036811641242022</v>
+        <v>0.8026060261819756</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8217380720545276</v>
+        <v>0.8193578924591582</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6016949152542372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6186440677966102</v>
+        <v>0.6016949152542372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7894406577950882</v>
+        <v>0.7894338959212376</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.638135593220339</v>
+        <v>0.6322033898305085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.638135593220339</v>
+        <v>0.6322033898305085</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8162530428432329</v>
+        <v>0.8137963864546143</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03367392784222734</v>
+        <v>0.0375185485104723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03367392784222734</v>
+        <v>0.0375185485104723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02209625476672126</v>
+        <v>0.02393948230248776</v>
       </c>
     </row>
   </sheetData>
